--- a/To.Rpa.AppCTS/CTS/WORKSPACE/RESPALDO/4023/PLANTILLA/Plantilla abono CTS - 4023.xlsx
+++ b/To.Rpa.AppCTS/CTS/WORKSPACE/RESPALDO/4023/PLANTILLA/Plantilla abono CTS - 4023.xlsx
@@ -1491,7 +1491,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E25" s="36" t="n">
-        <x:v>32793730</x:v>
+        <x:v>32793730-ROJO</x:v>
       </x:c>
       <x:c r="F25" s="35" t="n">
         <x:v>000976730496</x:v>
@@ -1529,7 +1529,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E26" s="36" t="n">
-        <x:v>32948694</x:v>
+        <x:v>32948694-ROJO</x:v>
       </x:c>
       <x:c r="F26" s="35" t="n">
         <x:v>000611398133</x:v>
@@ -1567,7 +1567,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E27" s="36" t="n">
-        <x:v>32966945</x:v>
+        <x:v>32966945-ROJO</x:v>
       </x:c>
       <x:c r="F27" s="35" t="n">
         <x:v>000978730460</x:v>
@@ -1605,7 +1605,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E28" s="36" t="n">
-        <x:v>32973962</x:v>
+        <x:v>32973962-ROJO</x:v>
       </x:c>
       <x:c r="F28" s="35" t="n">
         <x:v>000606178252</x:v>
@@ -1643,7 +1643,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E29" s="36" t="n">
-        <x:v>32913099</x:v>
+        <x:v>32913099-ROJO</x:v>
       </x:c>
       <x:c r="F29" s="35" t="n">
         <x:v>000978669559</x:v>
@@ -1681,7 +1681,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E30" s="36" t="n">
-        <x:v>15641527</x:v>
+        <x:v>15641527-ROJO</x:v>
       </x:c>
       <x:c r="F30" s="35" t="n">
         <x:v>000978869826</x:v>
@@ -1719,7 +1719,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E31" s="36" t="n">
-        <x:v>32962571</x:v>
+        <x:v>32962571-ROJO</x:v>
       </x:c>
       <x:c r="F31" s="35" t="n">
         <x:v>000963861476</x:v>
@@ -1757,7 +1757,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E32" s="36" t="n">
-        <x:v>32319397</x:v>
+        <x:v>32319397-ROJO</x:v>
       </x:c>
       <x:c r="F32" s="35" t="n">
         <x:v>000948137616</x:v>
@@ -1795,7 +1795,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E33" s="36" t="n">
-        <x:v>41034075</x:v>
+        <x:v>41034075-ROJO</x:v>
       </x:c>
       <x:c r="F33" s="35" t="n">
         <x:v>000978730429</x:v>
@@ -1833,7 +1833,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E34" s="36" t="n">
-        <x:v>09576136</x:v>
+        <x:v>09576136-ROJO</x:v>
       </x:c>
       <x:c r="F34" s="35" t="n">
         <x:v>000976759010</x:v>
@@ -1871,7 +1871,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E35" s="36" t="n">
-        <x:v>32961651</x:v>
+        <x:v>32961651-ROJO</x:v>
       </x:c>
       <x:c r="F35" s="35" t="n">
         <x:v>000971841527</x:v>
@@ -1909,7 +1909,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E36" s="36" t="n">
-        <x:v>32940729</x:v>
+        <x:v>32940729-ROJO</x:v>
       </x:c>
       <x:c r="F36" s="35" t="n">
         <x:v>000956529062</x:v>
@@ -1947,7 +1947,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E37" s="36" t="n">
-        <x:v>32730152</x:v>
+        <x:v>32730152-ROJO</x:v>
       </x:c>
       <x:c r="F37" s="35" t="n">
         <x:v>000964325039</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E38" s="36" t="n">
-        <x:v>42911460</x:v>
+        <x:v>42911460-ROJO</x:v>
       </x:c>
       <x:c r="F38" s="35" t="n">
         <x:v>000964325020</x:v>
@@ -2023,7 +2023,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E39" s="36" t="n">
-        <x:v>03490874</x:v>
+        <x:v>03490874-ROJO</x:v>
       </x:c>
       <x:c r="F39" s="35" t="n">
         <x:v>000993076548</x:v>
@@ -2061,7 +2061,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E40" s="36" t="n">
-        <x:v>42964776</x:v>
+        <x:v>42964776-ROJO</x:v>
       </x:c>
       <x:c r="F40" s="35" t="n">
         <x:v>000976984269</x:v>
@@ -2099,7 +2099,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E41" s="36" t="n">
-        <x:v>32116039</x:v>
+        <x:v>32116039-ROJO</x:v>
       </x:c>
       <x:c r="F41" s="35" t="n">
         <x:v>000606369562</x:v>
